--- a/project_sql/Data Analyses/5_optimal_skills_insights.xlsx
+++ b/project_sql/Data Analyses/5_optimal_skills_insights.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnor\Downloads\Brennan\SQL for Data Analytics\SQL_Project_Data_Job_Analysis\project_sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnor\Downloads\Brennan\SQL for Data Analytics\SQL_Project_Data_Job_Analysis\project_sql\Data Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84289192-93F1-43EF-BE7F-FF87F05DC619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA713F-E120-4776-AA1E-87E58BE1221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RAW_DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Insights" sheetId="2" r:id="rId1"/>
+    <sheet name="RAW_DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>sql</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Total Rank</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
@@ -149,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -479,19 +486,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -502,6 +509,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,6 +523,1396 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salary &amp; Demand Ranks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Insights!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9900"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Insights!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>snowflake</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tableau</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>looker</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>azure</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>aws</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>power bi</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hadoop</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>excel</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>sql server</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>powerpoint</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>word</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>flow</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sheets</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>spss</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>vba</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sharepoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Insights!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBB4-4378-A2B9-0C7C0DB0D19E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Insights!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary Rank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Insights!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>snowflake</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tableau</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>looker</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>azure</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>aws</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>power bi</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hadoop</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>excel</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>sql server</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>powerpoint</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>word</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>flow</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>sheets</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>spss</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>vba</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sharepoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Insights!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBB4-4378-A2B9-0C7C0DB0D19E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2076561712"/>
+        <c:axId val="2076562672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2076561712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t>Skill</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076562672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2076562672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t>Total Rank</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076561712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38794838145231847"/>
+          <c:y val="0.91631776785530339"/>
+          <c:w val="0.26927986596015124"/>
+          <c:h val="6.9645373640645339E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D70B91-D7A3-572C-E885-16983AE4B9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,12 +2177,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E48E6-7AC0-4468-99A9-42E4304F3FEC}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D26" si="0">SUM(B2:C2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortCondition ref="D2:D26"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:B26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -844,7 +2692,7 @@
         <v>87288</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:E26" si="0">_xlfn.RANK.EQ(B3,$B$2:$B$26)</f>
+        <f t="shared" ref="D3:D26" si="0">_xlfn.RANK.EQ(B3,$B$2:$B$26)</f>
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -868,7 +2716,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9"/>
       <c r="H4" s="22"/>
@@ -895,7 +2743,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9"/>
       <c r="H5" s="12" t="s">
@@ -903,7 +2751,7 @@
       </c>
       <c r="I5" s="18">
         <f>MIN(B2:B26)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="17">
         <f>MIN(C2:C26)</f>
@@ -926,7 +2774,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9"/>
       <c r="H6" s="13" t="s">
@@ -964,11 +2812,11 @@
       </c>
       <c r="I7" s="20">
         <f>AVERAGE(B2:B26)</f>
-        <v>81.96</v>
+        <v>80.12</v>
       </c>
       <c r="J7" s="15">
         <f>AVERAGE(C2:C26)</f>
-        <v>98708.76</v>
+        <v>99028.92</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,14 +2835,14 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="21">
         <f>MEDIAN(B2:B26)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="16">
         <f>MEDIAN(C2:C26)</f>
@@ -1003,32 +2851,32 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8">
-        <v>98902</v>
+        <v>88701</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8">
-        <v>88701</v>
+        <v>103795</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -1036,18 +2884,19 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8">
-        <v>103795</v>
+        <v>82576</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -1055,19 +2904,18 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8">
-        <v>82576</v>
+        <v>112948</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -1075,58 +2923,58 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>37</v>
       </c>
       <c r="C13" s="8">
-        <v>112948</v>
+        <v>104534</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8">
-        <v>104534</v>
+        <v>97786</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8">
-        <v>97786</v>
+        <v>111225</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -1134,18 +2982,18 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8">
-        <v>111225</v>
+        <v>108317</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -1153,56 +3001,56 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>32</v>
       </c>
       <c r="C17" s="8">
-        <v>108317</v>
+        <v>86088</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="8">
-        <v>86088</v>
+        <v>97200</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
-        <v>97200</v>
+        <v>115320</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -1210,18 +3058,18 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8">
-        <v>115320</v>
+        <v>92170</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -1229,56 +3077,56 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
       </c>
       <c r="C21" s="8">
-        <v>92170</v>
+        <v>88783</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8">
-        <v>88783</v>
+        <v>113193</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
       <c r="C23" s="8">
-        <v>113193</v>
+        <v>104918</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -1286,56 +3134,56 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
       </c>
       <c r="C24" s="8">
-        <v>104918</v>
+        <v>97587</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="8">
-        <v>97587</v>
+        <v>81634</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="8">
-        <v>81634</v>
+        <v>106906</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -1343,7 +3191,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/project_sql/Data Analyses/5_optimal_skills_insights.xlsx
+++ b/project_sql/Data Analyses/5_optimal_skills_insights.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnor\Downloads\Brennan\SQL for Data Analytics\SQL_Project_Data_Job_Analysis\project_sql\Data Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA713F-E120-4776-AA1E-87E58BE1221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6D4462-3C24-4A7F-A235-E0EF719CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Insights" sheetId="2" r:id="rId1"/>
-    <sheet name="RAW_DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="RAW_DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Scatter Plot" sheetId="4" r:id="rId2"/>
+    <sheet name="Insights" sheetId="2" r:id="rId3"/>
+    <sheet name="Pareto Charts" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Pareto Charts'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Pareto Charts'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Pareto Charts'!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Pareto Charts'!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Pareto Charts'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Pareto Charts'!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Pareto Charts'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Pareto Charts'!$B$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Pareto Charts'!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Pareto Charts'!$C$2:$C$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
   <si>
     <t>sql</t>
   </si>
@@ -144,10 +158,13 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Total Rank</t>
+    <t>java</t>
   </si>
   <si>
-    <t>java</t>
+    <t>Cumulative Percent</t>
+  </si>
+  <si>
+    <t>Average Rank</t>
   </si>
 </sst>
 </file>
@@ -158,7 +175,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +198,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +230,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +524,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -502,10 +553,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,6 +589,633 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salary vs Demand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAW_DATA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RAW_DATA!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RAW_DATA!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>97237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86088</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115320</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113193</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104918</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97587</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81634</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>106906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F2B-48C9-A5F7-CC358E469D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1823014688"/>
+        <c:axId val="1823017568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1823014688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1823017568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1823017568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="70000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Salary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1823014688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1341,7 +2031,581 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pareto Charts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pareto Charts'!$E$2:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hadoop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>snowflake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>azure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>aws</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jira</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>looker</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>tableau</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sas</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sql server</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>power bi</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>flow</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>spss</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>vba</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>powerpoint</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>excel</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>sheets</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>word</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>sharepoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pareto Charts'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>115320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97431</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97237</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87288</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86088</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82576</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3273-47A3-926D-1D6359553FE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819879552"/>
+        <c:axId val="1819881472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819879552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819881472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819881472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819879552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Skill Demand</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Skill Demand</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{F84AE438-6BB7-408C-B146-42013FE9EEDD}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Demand</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{4C0483D3-1CF1-4BB2-A046-E67F934C42EF}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C7D91FAA-D3CA-48B8-8C16-436632293469}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Cumulative Percent</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels/>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{8550F8FE-F329-4BDE-92AE-F60A48D6FF46}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1378,15 +2642,95 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
@@ -1397,18 +2741,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1450,7 +2792,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1505,7 +2847,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1525,7 +2867,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1558,7 +2900,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1722,7 +3064,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1749,18 +3091,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1817,6 +3157,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1826,7 +3167,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1858,9 +3199,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1869,12 +3219,1595 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100014</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D122B1E-4E42-447C-89FC-DF742E6DF8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1910,6 +4843,407 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADD10FB-D8C1-DB67-1F25-766EB867F35B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451F7D19-571F-4AF5-8BEA-1291B816D597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7753350" y="3886200"/>
+          <a:ext cx="7010400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="34000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21105FD-32B0-45F9-BC98-A43ADDBC46EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8115300" y="4314825"/>
+          <a:ext cx="6657975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="34000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3E5E4F-D2AE-4E3F-BBF1-3197B82101E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9505950" y="4810125"/>
+          <a:ext cx="5267325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="34000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D15AFE-8DB5-428D-9750-1FB7B0D21A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7400925" y="3419475"/>
+          <a:ext cx="7381875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="34000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554354</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E25FDDE-2E5B-4A46-B217-BB66383B9D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7419974" y="2962275"/>
+          <a:ext cx="7498080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="34000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AAC54D-EF6E-4863-9559-6D97735B3D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6353175" y="2495550"/>
+          <a:ext cx="8439150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="34000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319086</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="31" name="Chart 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586CCB71-EE92-AA7F-EDBC-DF79CEF9EF03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6148386" y="471485"/>
+              <a:ext cx="9491664" cy="5481639"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2177,17 +5511,927 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>398</v>
+      </c>
+      <c r="C2" s="25">
+        <v>97237</v>
+      </c>
+      <c r="D2" s="26">
+        <f>_xlfn.RANK.EQ(B2,$B$2:$B$26)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>_xlfn.RANK.EQ(C2,$C$2:$C$26)</f>
+        <v>17</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27">
+        <v>256</v>
+      </c>
+      <c r="C3" s="28">
+        <v>87288</v>
+      </c>
+      <c r="D3" s="29">
+        <f t="shared" ref="D3:D26" si="0">_xlfn.RANK.EQ(B3,$B$2:$B$26)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E26" si="1">_xlfn.RANK.EQ(C3,$C$2:$C$26)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27">
+        <v>236</v>
+      </c>
+      <c r="C4" s="28">
+        <v>101397</v>
+      </c>
+      <c r="D4" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27">
+        <v>230</v>
+      </c>
+      <c r="C5" s="28">
+        <v>99288</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="H5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="18">
+        <f>MIN(B2:B26)</f>
+        <v>17</v>
+      </c>
+      <c r="J5" s="17">
+        <f>MIN(C2:C26)</f>
+        <v>81634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27">
+        <v>148</v>
+      </c>
+      <c r="C6" s="28">
+        <v>100499</v>
+      </c>
+      <c r="D6" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="19">
+        <f>MAX(B2:B26)</f>
+        <v>398</v>
+      </c>
+      <c r="J6" s="15">
+        <f>MAX(C2:C26)</f>
+        <v>115320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27">
+        <v>110</v>
+      </c>
+      <c r="C7" s="28">
+        <v>97431</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="20">
+        <f>AVERAGE(B2:B26)</f>
+        <v>80.12</v>
+      </c>
+      <c r="J7" s="15">
+        <f>AVERAGE(C2:C26)</f>
+        <v>99028.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27">
+        <v>63</v>
+      </c>
+      <c r="C8" s="28">
+        <v>98902</v>
+      </c>
+      <c r="D8" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="21">
+        <f>MEDIAN(B2:B26)</f>
+        <v>35</v>
+      </c>
+      <c r="J8" s="16">
+        <f>MEDIAN(C2:C26)</f>
+        <v>98902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27">
+        <v>58</v>
+      </c>
+      <c r="C9" s="28">
+        <v>88701</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27">
+        <v>49</v>
+      </c>
+      <c r="C10" s="28">
+        <v>103795</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27">
+        <v>48</v>
+      </c>
+      <c r="C11" s="28">
+        <v>82576</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27">
+        <v>37</v>
+      </c>
+      <c r="C12" s="28">
+        <v>112948</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27">
+        <v>37</v>
+      </c>
+      <c r="C13" s="28">
+        <v>104534</v>
+      </c>
+      <c r="D13" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27">
+        <v>35</v>
+      </c>
+      <c r="C14" s="28">
+        <v>97786</v>
+      </c>
+      <c r="D14" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27">
+        <v>34</v>
+      </c>
+      <c r="C15" s="28">
+        <v>111225</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
+        <v>32</v>
+      </c>
+      <c r="C16" s="28">
+        <v>108317</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27">
+        <v>32</v>
+      </c>
+      <c r="C17" s="28">
+        <v>86088</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27">
+        <v>28</v>
+      </c>
+      <c r="C18" s="28">
+        <v>97200</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27">
+        <v>27</v>
+      </c>
+      <c r="C19" s="28">
+        <v>115320</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27">
+        <v>24</v>
+      </c>
+      <c r="C20" s="28">
+        <v>92170</v>
+      </c>
+      <c r="D20" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="27">
+        <v>24</v>
+      </c>
+      <c r="C21" s="28">
+        <v>88783</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="27">
+        <v>22</v>
+      </c>
+      <c r="C22" s="28">
+        <v>113193</v>
+      </c>
+      <c r="D22" s="29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="27">
+        <v>20</v>
+      </c>
+      <c r="C23" s="28">
+        <v>104918</v>
+      </c>
+      <c r="D23" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="27">
+        <v>20</v>
+      </c>
+      <c r="C24" s="28">
+        <v>97587</v>
+      </c>
+      <c r="D24" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="27">
+        <v>18</v>
+      </c>
+      <c r="C25" s="28">
+        <v>81634</v>
+      </c>
+      <c r="D25" s="29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="27">
+        <v>17</v>
+      </c>
+      <c r="C26" s="28">
+        <v>106906</v>
+      </c>
+      <c r="D26" s="29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE2487-CAD4-4A2F-B0BA-98F8E2FC5690}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>398</v>
+      </c>
+      <c r="C2" s="25">
+        <v>97237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27">
+        <v>256</v>
+      </c>
+      <c r="C3" s="28">
+        <v>87288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27">
+        <v>236</v>
+      </c>
+      <c r="C4" s="28">
+        <v>101397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27">
+        <v>230</v>
+      </c>
+      <c r="C5" s="28">
+        <v>99288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27">
+        <v>148</v>
+      </c>
+      <c r="C6" s="28">
+        <v>100499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27">
+        <v>110</v>
+      </c>
+      <c r="C7" s="28">
+        <v>97431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27">
+        <v>63</v>
+      </c>
+      <c r="C8" s="28">
+        <v>98902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27">
+        <v>58</v>
+      </c>
+      <c r="C9" s="28">
+        <v>88701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27">
+        <v>49</v>
+      </c>
+      <c r="C10" s="28">
+        <v>103795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27">
+        <v>48</v>
+      </c>
+      <c r="C11" s="28">
+        <v>82576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27">
+        <v>37</v>
+      </c>
+      <c r="C12" s="28">
+        <v>112948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27">
+        <v>37</v>
+      </c>
+      <c r="C13" s="28">
+        <v>104534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27">
+        <v>35</v>
+      </c>
+      <c r="C14" s="28">
+        <v>97786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27">
+        <v>34</v>
+      </c>
+      <c r="C15" s="28">
+        <v>111225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
+        <v>32</v>
+      </c>
+      <c r="C16" s="28">
+        <v>108317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27">
+        <v>32</v>
+      </c>
+      <c r="C17" s="28">
+        <v>86088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27">
+        <v>28</v>
+      </c>
+      <c r="C18" s="28">
+        <v>97200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27">
+        <v>27</v>
+      </c>
+      <c r="C19" s="28">
+        <v>115320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27">
+        <v>24</v>
+      </c>
+      <c r="C20" s="28">
+        <v>92170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="27">
+        <v>24</v>
+      </c>
+      <c r="C21" s="28">
+        <v>88783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="27">
+        <v>22</v>
+      </c>
+      <c r="C22" s="28">
+        <v>113193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="27">
+        <v>20</v>
+      </c>
+      <c r="C23" s="28">
+        <v>104918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="27">
+        <v>20</v>
+      </c>
+      <c r="C24" s="28">
+        <v>97587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="27">
+        <v>18</v>
+      </c>
+      <c r="C25" s="28">
+        <v>81634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="27">
+        <v>17</v>
+      </c>
+      <c r="C26" s="28">
+        <v>106906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E48E6-7AC0-4468-99A9-42E4304F3FEC}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2201,7 +6445,7 @@
         <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,8 +6459,8 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D26" si="0">SUM(B2:C2)</f>
-        <v>13</v>
+        <f>AVERAGE(B2:C2)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,9 +6473,9 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D26" si="0">AVERAGE(B3:C3)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,9 +6488,9 @@
       <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,9 +6503,9 @@
       <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,9 +6518,9 @@
       <c r="C6" s="1">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,9 +6533,9 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,9 +6548,9 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,9 +6563,9 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,9 +6578,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,9 +6593,9 @@
       <c r="C11" s="1">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,9 +6608,9 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,9 +6623,9 @@
       <c r="C13" s="1">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,9 +6638,9 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,9 +6653,9 @@
       <c r="C15" s="1">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,9 +6668,9 @@
       <c r="C16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,9 +6683,9 @@
       <c r="C17" s="1">
         <v>21</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,14 +6698,14 @@
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>25</v>
@@ -2469,9 +6713,9 @@
       <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,9 +6728,9 @@
       <c r="C20" s="1">
         <v>24</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,9 +6743,9 @@
       <c r="C21" s="1">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,9 +6758,9 @@
       <c r="C22" s="1">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,9 +6773,9 @@
       <c r="C23" s="1">
         <v>23</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,9 +6788,9 @@
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,9 +6803,9 @@
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,9 +6818,9 @@
       <c r="C26" s="1">
         <v>25</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
@@ -2624,601 +6868,495 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974B111E-8F87-49DA-8A3B-27CDDF919008}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y41" sqref="Y41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>398</v>
       </c>
-      <c r="C2" s="7">
-        <v>97237</v>
-      </c>
-      <c r="D2" s="2">
-        <f>_xlfn.RANK.EQ(B2,$B$2:$B$26)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <f>_xlfn.RANK.EQ(C2,$C$2:$C$26)</f>
+      <c r="C2" s="23">
+        <f>B2/SUM($B$2:$B$26)</f>
+        <v>0.19870194707938094</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="7">
+        <v>115320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>256</v>
       </c>
-      <c r="C3" s="8">
-        <v>87288</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D26" si="0">_xlfn.RANK.EQ(B3,$B$2:$B$26)</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E26" si="1">_xlfn.RANK.EQ(C3,$C$2:$C$26)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23">
+        <f t="shared" ref="C3:C26" si="0">B3/SUM($B$2:$B$26)</f>
+        <v>0.12780828756864704</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8">
+        <v>113193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>236</v>
       </c>
-      <c r="C4" s="8">
-        <v>101397</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="23">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
+        <v>0.11782326510234647</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>112948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>230</v>
       </c>
-      <c r="C5" s="8">
-        <v>99288</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="23">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="H5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="18">
-        <f>MIN(B2:B26)</f>
-        <v>17</v>
-      </c>
-      <c r="J5" s="17">
-        <f>MIN(C2:C26)</f>
-        <v>81634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.11482775836245632</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8">
+        <v>111225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>148</v>
       </c>
-      <c r="C6" s="8">
-        <v>100499</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="19">
-        <f>MAX(B2:B26)</f>
-        <v>398</v>
-      </c>
-      <c r="J6" s="15">
-        <f>MAX(C2:C26)</f>
-        <v>115320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.3889166250624069E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>108317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>110</v>
       </c>
-      <c r="C7" s="8">
-        <v>97431</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="20">
-        <f>AVERAGE(B2:B26)</f>
-        <v>80.12</v>
-      </c>
-      <c r="J7" s="15">
-        <f>AVERAGE(C2:C26)</f>
-        <v>99028.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.4917623564653018E-2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8">
+        <v>106906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>63</v>
       </c>
-      <c r="C8" s="8">
-        <v>98902</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="21">
-        <f>MEDIAN(B2:B26)</f>
-        <v>35</v>
-      </c>
-      <c r="J8" s="16">
-        <f>MEDIAN(C2:C26)</f>
-        <v>98902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.1452820768846729E-2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8">
+        <v>104918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>58</v>
       </c>
-      <c r="C9" s="8">
-        <v>88701</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.8956565152271591E-2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>104534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>49</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="23">
+        <f t="shared" si="0"/>
+        <v>2.4463305042436344E-2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
         <v>103795</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>48</v>
       </c>
-      <c r="C11" s="8">
-        <v>82576</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.3964053919121316E-2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>101397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>37</v>
       </c>
-      <c r="C12" s="8">
-        <v>112948</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.8472291562656017E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8">
+        <v>100499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>37</v>
       </c>
-      <c r="C13" s="8">
-        <v>104534</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="23">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.8472291562656017E-2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>99288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>35</v>
       </c>
-      <c r="C14" s="8">
-        <v>97786</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="23">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.7473789316025962E-2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8">
+        <v>98902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
       </c>
-      <c r="C15" s="8">
-        <v>111225</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="23">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.6974538192710935E-2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8">
+        <v>97786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>32</v>
       </c>
-      <c r="C16" s="8">
-        <v>108317</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.597603594608088E-2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
+        <v>97587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>32</v>
       </c>
-      <c r="C17" s="8">
-        <v>86088</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.597603594608088E-2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>97431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="8">
-        <v>97200</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="23">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3979031452820768E-2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>97237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>27</v>
       </c>
-      <c r="C19" s="8">
-        <v>115320</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="23">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.3479780329505741E-2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="8">
+        <v>97200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>24</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1982026959560658E-2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8">
         <v>92170</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>24</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1982026959560658E-2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8">
         <v>88783</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="C22" s="8">
-        <v>113193</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="23">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.0983524712930605E-2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="8">
+        <v>88701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
-        <v>104918</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="23">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.9850224663005499E-3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>87288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="C24" s="8">
-        <v>97587</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="23">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <v>9.9850224663005499E-3</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>86088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
       </c>
-      <c r="C25" s="8">
-        <v>81634</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="23">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.9865202196704949E-3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8">
+        <v>82576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>17</v>
       </c>
-      <c r="C26" s="8">
-        <v>106906</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="23">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8.4872690963554674E-3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8">
+        <v>81634</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D26">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F26">
+    <sortCondition descending="1" ref="F2:F26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project_sql/Data Analyses/5_optimal_skills_insights.xlsx
+++ b/project_sql/Data Analyses/5_optimal_skills_insights.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnor\Downloads\Brennan\SQL for Data Analytics\SQL_Project_Data_Job_Analysis\project_sql\Data Analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnor\Downloads\Brennan\Online Classes and Projects\SQL for Data Analytics\SQL_Project_Data_Job_Analysis\project_sql\Data Analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6D4462-3C24-4A7F-A235-E0EF719CDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41B0BBE-BAA7-4BFE-B1A5-5EB34A522D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW_DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Scatter Plot" sheetId="4" r:id="rId2"/>
     <sheet name="Insights" sheetId="2" r:id="rId3"/>
     <sheet name="Pareto Charts" sheetId="3" r:id="rId4"/>
+    <sheet name="RAW_DATA - Salary Prio" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Pareto Charts'!$A$2:$A$26</definedName>
@@ -24,11 +25,6 @@
     <definedName name="_xlchart.v1.2" hidden="1">'Pareto Charts'!$B$2:$B$26</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Pareto Charts'!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Pareto Charts'!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Pareto Charts'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Pareto Charts'!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Pareto Charts'!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Pareto Charts'!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Pareto Charts'!$C$2:$C$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>sql</t>
   </si>
@@ -165,6 +161,60 @@
   </si>
   <si>
     <t>Average Rank</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>demand_count</t>
+  </si>
+  <si>
+    <t>average_salary</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Confluence</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Bigquery</t>
+  </si>
+  <si>
+    <t>Aws</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Ssis</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Looker</t>
+  </si>
+  <si>
+    <t>Nosql</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -529,7 +579,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -564,6 +614,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2451,6 +2502,1187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salary VS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Demand - Salary Prioritized</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RAW_DATA - Salary Prio'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average_salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{98C63819-9026-4AFF-92AF-F84E0784B67E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A0CDC1A6-748D-4541-BD14-615FC65DDABA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1ABDFED7-63F0-4AB1-A514-A795BA4E6D9D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{900D1FB0-67EA-4798-968D-787846E0E06D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{08AAFB6A-DA51-4A0F-B46D-3EBBA614B15E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{698EE087-4783-4F88-B5C7-7DFCE368AE05}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{948AAB4B-FA4E-4475-AB13-DAD85285B572}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5E661292-B781-490E-9E81-EC72465098EB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B65C8B35-8704-4589-B54B-4219F19A2132}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1CE4B4A9-08FE-4B30-BCA9-BFD1C56C9739}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{72552C1F-8615-4E9D-9F08-67FF940B87E5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3F1324A3-EDAE-47D3-8917-59332A333E18}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C8A80696-EBDE-465C-B659-E26864B906B0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{49BC4B07-05F7-4289-92DC-9A51E5215475}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33F5A35E-282A-4F4F-A3D4-2294F7E5737A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-7714-45C6-B6AB-76AEFFD78921}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RAW_DATA - Salary Prio'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RAW_DATA - Salary Prio'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>115320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104534</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'RAW_DATA - Salary Prio'!$A$2:$A$16</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>Go</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Confluence</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Hadoop</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Snowflake</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Azure</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Bigquery</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Aws</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Ssis</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jira</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Oracle</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Looker</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Nosql</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>R</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7714-45C6-B6AB-76AEFFD78921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1628787072"/>
+        <c:axId val="1628784672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1628787072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628784672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1628784672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Salary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628787072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2722,6 +3954,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -4759,6 +6031,508 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5249,6 +7023,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833BF315-E6A8-AEFF-EAC3-4AA614386CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6872,7 +8687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974B111E-8F87-49DA-8A3B-27CDDF919008}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
@@ -7359,4 +9174,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898A4D4B-A621-4305-B695-94411F426BDA}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="34">
+        <v>115320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="34">
+        <v>114210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="34">
+        <v>113193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5" s="34">
+        <v>112948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" s="34">
+        <v>111225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" s="34">
+        <v>109654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8" s="34">
+        <v>108317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" s="34">
+        <v>106906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="34">
+        <v>106683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="34">
+        <v>104918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12" s="34">
+        <v>104534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>49</v>
+      </c>
+      <c r="C13" s="34">
+        <v>103795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="34">
+        <v>101414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>236</v>
+      </c>
+      <c r="C15" s="34">
+        <v>101397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>148</v>
+      </c>
+      <c r="C16" s="34">
+        <v>100499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>